--- a/Code/Results/Cases/Case_5_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_151/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9677167310083519</v>
+        <v>1.233604490811928</v>
       </c>
       <c r="C2">
-        <v>0.1537353748193908</v>
+        <v>0.0724348790352991</v>
       </c>
       <c r="D2">
-        <v>0.003762870122514972</v>
+        <v>0.004012937064468591</v>
       </c>
       <c r="E2">
-        <v>0.02069352079031983</v>
+        <v>0.0651270280068843</v>
       </c>
       <c r="F2">
-        <v>3.404131091889482</v>
+        <v>4.639663493202448</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.227327964077048</v>
+        <v>3.007647047798713</v>
       </c>
       <c r="J2">
-        <v>0.0879654460089121</v>
+        <v>0.1738394188916423</v>
       </c>
       <c r="K2">
-        <v>1.050870042555431</v>
+        <v>1.098044654369374</v>
       </c>
       <c r="L2">
-        <v>0.1971457141807562</v>
+        <v>0.3540689197456715</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8553763172834863</v>
+        <v>1.216754902808873</v>
       </c>
       <c r="C3">
-        <v>0.1330858542225286</v>
+        <v>0.06715396461659395</v>
       </c>
       <c r="D3">
-        <v>0.003688102490937872</v>
+        <v>0.004145253105162894</v>
       </c>
       <c r="E3">
-        <v>0.02021867641427466</v>
+        <v>0.06537049419045626</v>
       </c>
       <c r="F3">
-        <v>3.223765592803886</v>
+        <v>4.599691938734992</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.124519200436183</v>
+        <v>2.983223206827091</v>
       </c>
       <c r="J3">
-        <v>0.08623978267941013</v>
+        <v>0.1737394437704296</v>
       </c>
       <c r="K3">
-        <v>0.9236010769368477</v>
+        <v>1.075287720699265</v>
       </c>
       <c r="L3">
-        <v>0.1810451590048032</v>
+        <v>0.3524579666636924</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7878131361517831</v>
+        <v>1.207252263149627</v>
       </c>
       <c r="C4">
-        <v>0.1206177960490322</v>
+        <v>0.06395599346494407</v>
       </c>
       <c r="D4">
-        <v>0.003634856821944865</v>
+        <v>0.004233372198386931</v>
       </c>
       <c r="E4">
-        <v>0.01995015741298367</v>
+        <v>0.06554090196970463</v>
       </c>
       <c r="F4">
-        <v>3.116486048899802</v>
+        <v>4.576408819635787</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.063437373349402</v>
+        <v>2.968916534873571</v>
       </c>
       <c r="J4">
-        <v>0.08524473021566692</v>
+        <v>0.1737113378703015</v>
       </c>
       <c r="K4">
-        <v>0.8469737315467967</v>
+        <v>1.062085975564287</v>
       </c>
       <c r="L4">
-        <v>0.1714460175226904</v>
+        <v>0.3516446564153526</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7606047916325451</v>
+        <v>1.203592118987217</v>
       </c>
       <c r="C5">
-        <v>0.1155833412200309</v>
+        <v>0.06266391640153302</v>
       </c>
       <c r="D5">
-        <v>0.003611356389478182</v>
+        <v>0.004271017070007321</v>
       </c>
       <c r="E5">
-        <v>0.01984635694501335</v>
+        <v>0.06561561930583792</v>
       </c>
       <c r="F5">
-        <v>3.073577100753127</v>
+        <v>4.567237214676297</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.03902287117603</v>
+        <v>2.963259630052391</v>
       </c>
       <c r="J5">
-        <v>0.08485469956676894</v>
+        <v>0.1737082610830996</v>
       </c>
       <c r="K5">
-        <v>0.816091963931143</v>
+        <v>1.056900152086683</v>
       </c>
       <c r="L5">
-        <v>0.1676014012312663</v>
+        <v>0.3513574990491435</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7561055701088151</v>
+        <v>1.202997182580049</v>
       </c>
       <c r="C6">
-        <v>0.1147499900297788</v>
+        <v>0.06245003754631284</v>
       </c>
       <c r="D6">
-        <v>0.003607346553905266</v>
+        <v>0.004277372991440487</v>
       </c>
       <c r="E6">
-        <v>0.01982945585033491</v>
+        <v>0.06562834507846826</v>
       </c>
       <c r="F6">
-        <v>3.066499157997768</v>
+        <v>4.565733381867048</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.034996627693872</v>
+        <v>2.962330757970761</v>
       </c>
       <c r="J6">
-        <v>0.08479084779988</v>
+        <v>0.173708256356079</v>
       </c>
       <c r="K6">
-        <v>0.8109838497782675</v>
+        <v>1.05605076984196</v>
       </c>
       <c r="L6">
-        <v>0.1669669200936355</v>
+        <v>0.3513124926116546</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7874449221831128</v>
+        <v>1.207202041390559</v>
       </c>
       <c r="C7">
-        <v>0.1205497202665242</v>
+        <v>0.06393852312751847</v>
       </c>
       <c r="D7">
-        <v>0.003634547128160914</v>
+        <v>0.004233872854511045</v>
       </c>
       <c r="E7">
-        <v>0.01994873497084182</v>
+        <v>0.06554188825676999</v>
       </c>
       <c r="F7">
-        <v>3.115904171270074</v>
+        <v>4.576283847233867</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.063106227181592</v>
+        <v>2.968839543011441</v>
       </c>
       <c r="J7">
-        <v>0.08523940849266509</v>
+        <v>0.1737112624480943</v>
       </c>
       <c r="K7">
-        <v>0.8465559011314667</v>
+        <v>1.062015252128731</v>
       </c>
       <c r="L7">
-        <v>0.1713939022734436</v>
+        <v>0.3516406043677449</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9286685726849271</v>
+        <v>1.227619916911777</v>
       </c>
       <c r="C8">
-        <v>0.1465675123223917</v>
+        <v>0.07060472970748322</v>
       </c>
       <c r="D8">
-        <v>0.003738638985067766</v>
+        <v>0.004057136276964801</v>
       </c>
       <c r="E8">
-        <v>0.02052490685803576</v>
+        <v>0.06520664220992423</v>
       </c>
       <c r="F8">
-        <v>3.341182408409196</v>
+        <v>4.62561969063205</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.191432409557024</v>
+        <v>2.9990824109492</v>
       </c>
       <c r="J8">
-        <v>0.08735657358374738</v>
+        <v>0.1737980450871355</v>
       </c>
       <c r="K8">
-        <v>1.006649993322327</v>
+        <v>1.090038064358481</v>
       </c>
       <c r="L8">
-        <v>0.1915316394719397</v>
+        <v>0.3534770064475481</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.21838030311892</v>
+        <v>1.274341815827427</v>
       </c>
       <c r="C9">
-        <v>0.1995887551274365</v>
+        <v>0.08403464828960239</v>
       </c>
       <c r="D9">
-        <v>0.003882628684657163</v>
+        <v>0.003764836722543574</v>
       </c>
       <c r="E9">
-        <v>0.02184597025540214</v>
+        <v>0.0647145845617132</v>
       </c>
       <c r="F9">
-        <v>3.81354766675102</v>
+        <v>4.732381880448486</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.46110228651564</v>
+        <v>3.06387632622139</v>
       </c>
       <c r="J9">
-        <v>0.09205748062451491</v>
+        <v>0.1742320158726756</v>
       </c>
       <c r="K9">
-        <v>1.334440401639995</v>
+        <v>1.151110071799508</v>
       </c>
       <c r="L9">
-        <v>0.2335411487836296</v>
+        <v>0.3584712324410049</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.441395838034367</v>
+        <v>1.312739641244974</v>
       </c>
       <c r="C10">
-        <v>0.2402662207639423</v>
+        <v>0.09412641534478894</v>
       </c>
       <c r="D10">
-        <v>0.003949150920266042</v>
+        <v>0.003582800054322988</v>
       </c>
       <c r="E10">
-        <v>0.02294601051091227</v>
+        <v>0.06445307617084417</v>
       </c>
       <c r="F10">
-        <v>4.183971059764787</v>
+        <v>4.816965553773656</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.672976339249146</v>
+        <v>3.114854153546688</v>
       </c>
       <c r="J10">
-        <v>0.09590279206392083</v>
+        <v>0.1747114558828642</v>
       </c>
       <c r="K10">
-        <v>1.586492856426077</v>
+        <v>1.199719168271145</v>
       </c>
       <c r="L10">
-        <v>0.2663163114442426</v>
+        <v>0.3629880283306619</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.545650974974109</v>
+        <v>1.331091868551681</v>
       </c>
       <c r="C11">
-        <v>0.2592716100282075</v>
+        <v>0.09876778987953116</v>
       </c>
       <c r="D11">
-        <v>0.003970331784683978</v>
+        <v>0.00350701291975497</v>
       </c>
       <c r="E11">
-        <v>0.02347776335896867</v>
+        <v>0.06435565919582764</v>
       </c>
       <c r="F11">
-        <v>4.358734276341636</v>
+        <v>4.856788753741</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.773032733443003</v>
+        <v>3.138784384221537</v>
       </c>
       <c r="J11">
-        <v>0.09775119651897768</v>
+        <v>0.1749644055659552</v>
       </c>
       <c r="K11">
-        <v>1.704289822413358</v>
+        <v>1.222647243526296</v>
       </c>
       <c r="L11">
-        <v>0.2817346955492894</v>
+        <v>0.3652265989876895</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.585587909620131</v>
+        <v>1.338168507203818</v>
       </c>
       <c r="C12">
-        <v>0.2665522837025662</v>
+        <v>0.10053273463339</v>
       </c>
       <c r="D12">
-        <v>0.00397700163467718</v>
+        <v>0.003479317905806134</v>
       </c>
       <c r="E12">
-        <v>0.02368392661073671</v>
+        <v>0.06432185417751057</v>
       </c>
       <c r="F12">
-        <v>4.425920689368411</v>
+        <v>4.872062799142924</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.811513135190438</v>
+        <v>3.147952963583137</v>
       </c>
       <c r="J12">
-        <v>0.09846669614105963</v>
+        <v>0.1750651971898947</v>
       </c>
       <c r="K12">
-        <v>1.749412110600815</v>
+        <v>1.231446856668612</v>
       </c>
       <c r="L12">
-        <v>0.2876550369520174</v>
+        <v>0.3661006867061189</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.576965486294995</v>
+        <v>1.336638778933803</v>
       </c>
       <c r="C13">
-        <v>0.2649803355979827</v>
+        <v>0.1001522936563788</v>
       </c>
       <c r="D13">
-        <v>0.003975625954274697</v>
+        <v>0.003485237964576005</v>
       </c>
       <c r="E13">
-        <v>0.02363930719231533</v>
+        <v>0.06432899771318823</v>
       </c>
       <c r="F13">
-        <v>4.411404253831108</v>
+        <v>4.868764632249963</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.803198326220155</v>
+        <v>3.145973594973142</v>
       </c>
       <c r="J13">
-        <v>0.09831188699410376</v>
+        <v>0.175043267407915</v>
       </c>
       <c r="K13">
-        <v>1.739670214878743</v>
+        <v>1.229546488205074</v>
       </c>
       <c r="L13">
-        <v>0.2863762043322993</v>
+        <v>0.3659112633562813</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.548927103231449</v>
+        <v>1.331671522712782</v>
       </c>
       <c r="C14">
-        <v>0.2598688454368983</v>
+        <v>0.09891284501978248</v>
       </c>
       <c r="D14">
-        <v>0.003970907846486682</v>
+        <v>0.003504714348553151</v>
       </c>
       <c r="E14">
-        <v>0.02349462654774293</v>
+        <v>0.0643528162914464</v>
       </c>
       <c r="F14">
-        <v>4.364240896531214</v>
+        <v>4.858041471253927</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.776186306914127</v>
+        <v>3.139536548283857</v>
       </c>
       <c r="J14">
-        <v>0.09780974161966327</v>
+        <v>0.1749725974804903</v>
       </c>
       <c r="K14">
-        <v>1.70799134508087</v>
+        <v>1.223368843281918</v>
       </c>
       <c r="L14">
-        <v>0.282220075266693</v>
+        <v>0.3652979820988236</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.531814116273011</v>
+        <v>1.328645474702711</v>
       </c>
       <c r="C15">
-        <v>0.2567491853918682</v>
+        <v>0.09815460753557659</v>
       </c>
       <c r="D15">
-        <v>0.00396784061872113</v>
+        <v>0.003516774763804076</v>
       </c>
       <c r="E15">
-        <v>0.02340663979159352</v>
+        <v>0.06436780717881874</v>
       </c>
       <c r="F15">
-        <v>4.335486556909814</v>
+        <v>4.851498483060141</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.759719636410011</v>
+        <v>3.13560757798362</v>
       </c>
       <c r="J15">
-        <v>0.09750422854317264</v>
+        <v>0.1749299617313937</v>
       </c>
       <c r="K15">
-        <v>1.688656224564653</v>
+        <v>1.219600125971539</v>
       </c>
       <c r="L15">
-        <v>0.2796852398627152</v>
+        <v>0.3649257648967676</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.434643481544384</v>
+        <v>1.311558068985136</v>
       </c>
       <c r="C16">
-        <v>0.2390352270096798</v>
+        <v>0.09382411552010694</v>
       </c>
       <c r="D16">
-        <v>0.003947580104723958</v>
+        <v>0.003587893724356306</v>
       </c>
       <c r="E16">
-        <v>0.02291191425677219</v>
+        <v>0.06445987498163674</v>
       </c>
       <c r="F16">
-        <v>4.172684722540112</v>
+        <v>4.814390122761097</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.666516580530342</v>
+        <v>3.113305175039059</v>
       </c>
       <c r="J16">
-        <v>0.09578409714264069</v>
+        <v>0.1746956257548788</v>
       </c>
       <c r="K16">
-        <v>1.578862994688961</v>
+        <v>1.198237173153331</v>
       </c>
       <c r="L16">
-        <v>0.2653196347990843</v>
+        <v>0.3628454279467519</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.37578772987618</v>
+        <v>1.301301993251656</v>
       </c>
       <c r="C17">
-        <v>0.2283045417884608</v>
+        <v>0.09118051272585603</v>
       </c>
       <c r="D17">
-        <v>0.003932792896190751</v>
+        <v>0.003633317270850256</v>
       </c>
       <c r="E17">
-        <v>0.0226166425869625</v>
+        <v>0.06452186408599303</v>
       </c>
       <c r="F17">
-        <v>4.074486648330748</v>
+        <v>4.791970256095965</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.610323288256666</v>
+        <v>3.09981314918393</v>
       </c>
       <c r="J17">
-        <v>0.0947551265402069</v>
+        <v>0.1745607896124604</v>
       </c>
       <c r="K17">
-        <v>1.51235536260873</v>
+        <v>1.185340554464716</v>
       </c>
       <c r="L17">
-        <v>0.2566429431747395</v>
+        <v>0.3616162637167406</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.342195825086122</v>
+        <v>1.295486268410627</v>
       </c>
       <c r="C18">
-        <v>0.2221789211502738</v>
+        <v>0.08966473799705454</v>
       </c>
       <c r="D18">
-        <v>0.003923435658371055</v>
+        <v>0.003660105008436165</v>
       </c>
       <c r="E18">
-        <v>0.02244974068323202</v>
+        <v>0.06455954724294521</v>
       </c>
       <c r="F18">
-        <v>4.018587467185569</v>
+        <v>4.779201580168092</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.578344066731788</v>
+        <v>3.092122543051616</v>
       </c>
       <c r="J18">
-        <v>0.09417253812021542</v>
+        <v>0.1744865160506812</v>
       </c>
       <c r="K18">
-        <v>1.474392994839548</v>
+        <v>1.177999525345115</v>
       </c>
       <c r="L18">
-        <v>0.2516996678264292</v>
+        <v>0.3609265893473008</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.330865330885473</v>
+        <v>1.293531476572667</v>
       </c>
       <c r="C19">
-        <v>0.2201125217987823</v>
+        <v>0.08915233697518943</v>
       </c>
       <c r="D19">
-        <v>0.003920122509007307</v>
+        <v>0.003669288636345858</v>
       </c>
       <c r="E19">
-        <v>0.02239372541953522</v>
+        <v>0.06457265494759667</v>
       </c>
       <c r="F19">
-        <v>3.999757772233778</v>
+        <v>4.774900065283759</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.567573319249476</v>
+        <v>3.089530589768003</v>
       </c>
       <c r="J19">
-        <v>0.09397683481320485</v>
+        <v>0.1744619319429326</v>
       </c>
       <c r="K19">
-        <v>1.461587736334963</v>
+        <v>1.175527164412358</v>
       </c>
       <c r="L19">
-        <v>0.2500338413467631</v>
+        <v>0.3606960516987812</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.382025701060257</v>
+        <v>1.302385150372288</v>
       </c>
       <c r="C20">
-        <v>0.2294419600540607</v>
+        <v>0.09146143595616252</v>
       </c>
       <c r="D20">
-        <v>0.003934455530450798</v>
+        <v>0.003628413456924218</v>
       </c>
       <c r="E20">
-        <v>0.02264776942636004</v>
+        <v>0.06451505537860669</v>
       </c>
       <c r="F20">
-        <v>4.084879045344906</v>
+        <v>4.79434378004288</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.616269362504255</v>
+        <v>3.101242187791541</v>
       </c>
       <c r="J20">
-        <v>0.09486369611356693</v>
+        <v>0.1745748036650916</v>
       </c>
       <c r="K20">
-        <v>1.519404647065556</v>
+        <v>1.186705476903654</v>
       </c>
       <c r="L20">
-        <v>0.2575616342247287</v>
+        <v>0.3617453193554354</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.55714976887279</v>
+        <v>1.333127079716718</v>
       </c>
       <c r="C21">
-        <v>0.261367841520979</v>
+        <v>0.09927670079161999</v>
       </c>
       <c r="D21">
-        <v>0.003972330687335823</v>
+        <v>0.003498966462851971</v>
       </c>
       <c r="E21">
-        <v>0.02353699000311771</v>
+        <v>0.06434573658644105</v>
       </c>
       <c r="F21">
-        <v>4.378065663505794</v>
+        <v>4.861185859273036</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.784103812689793</v>
+        <v>3.141424366282379</v>
       </c>
       <c r="J21">
-        <v>0.09795680095763259</v>
+        <v>0.1749932191649961</v>
       </c>
       <c r="K21">
-        <v>1.717281672243473</v>
+        <v>1.225180185421664</v>
       </c>
       <c r="L21">
-        <v>0.2834385401571922</v>
+        <v>0.3654774018473432</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.674301332957867</v>
+        <v>1.353959159478336</v>
       </c>
       <c r="C22">
-        <v>0.2827277724979922</v>
+        <v>0.1044273496275139</v>
       </c>
       <c r="D22">
-        <v>0.003989190035885049</v>
+        <v>0.003420214365914109</v>
       </c>
       <c r="E22">
-        <v>0.02414628332116742</v>
+        <v>0.06425305069650022</v>
       </c>
       <c r="F22">
-        <v>4.575610125544983</v>
+        <v>4.906001179382827</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.897273403490559</v>
+        <v>3.168307924928314</v>
       </c>
       <c r="J22">
-        <v>0.1000696511336017</v>
+        <v>0.1752958484027971</v>
       </c>
       <c r="K22">
-        <v>1.849643134382916</v>
+        <v>1.251009040047506</v>
       </c>
       <c r="L22">
-        <v>0.300831641835984</v>
+        <v>0.3680703305262938</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.611508928232013</v>
+        <v>1.342772996903363</v>
       </c>
       <c r="C23">
-        <v>0.2712781155584025</v>
+        <v>0.1016743961668567</v>
       </c>
       <c r="D23">
-        <v>0.003980928889086854</v>
+        <v>0.003461712573174847</v>
       </c>
       <c r="E23">
-        <v>0.02381841263570372</v>
+        <v>0.06430087869503431</v>
       </c>
       <c r="F23">
-        <v>4.469595735734856</v>
+        <v>4.881978870139505</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.836531716807698</v>
+        <v>3.153902638996385</v>
       </c>
       <c r="J23">
-        <v>0.09893316539407238</v>
+        <v>0.1751316624360655</v>
       </c>
       <c r="K23">
-        <v>1.778698428872559</v>
+        <v>1.237161168987456</v>
       </c>
       <c r="L23">
-        <v>0.2915015306245579</v>
+        <v>0.3666723790550463</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.379204755059675</v>
+        <v>1.301895203872931</v>
       </c>
       <c r="C24">
-        <v>0.2289275983411301</v>
+        <v>0.09133441790045538</v>
       </c>
       <c r="D24">
-        <v>0.003933706515870217</v>
+        <v>0.003630628374850176</v>
       </c>
       <c r="E24">
-        <v>0.02263368811542499</v>
+        <v>0.06451812722509942</v>
       </c>
       <c r="F24">
-        <v>4.080178918228967</v>
+        <v>4.793270333592574</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.613580128324088</v>
+        <v>3.100595913434674</v>
       </c>
       <c r="J24">
-        <v>0.09481458393333497</v>
+        <v>0.174568457802458</v>
       </c>
       <c r="K24">
-        <v>1.516216817629356</v>
+        <v>1.186088166809583</v>
       </c>
       <c r="L24">
-        <v>0.2571461542539026</v>
+        <v>0.3616869203811177</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.138405970807185</v>
+        <v>1.260987195016241</v>
       </c>
       <c r="C25">
-        <v>0.1849818989242351</v>
+        <v>0.08036252016991341</v>
       </c>
       <c r="D25">
-        <v>0.003850383000290503</v>
+        <v>0.003838139503869353</v>
       </c>
       <c r="E25">
-        <v>0.02146685812896543</v>
+        <v>0.06483007966767929</v>
       </c>
       <c r="F25">
-        <v>3.682022586440354</v>
+        <v>4.702423590696071</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.385949803438137</v>
+        <v>3.045757439977621</v>
       </c>
       <c r="J25">
-        <v>0.09072140960661201</v>
+        <v>0.1740863970478621</v>
       </c>
       <c r="K25">
-        <v>1.244010295307703</v>
+        <v>1.133932460599681</v>
       </c>
       <c r="L25">
-        <v>0.2218700964994014</v>
+        <v>0.3569712075158833</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_151/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.233604490811928</v>
+        <v>0.9677167310083234</v>
       </c>
       <c r="C2">
-        <v>0.0724348790352991</v>
+        <v>0.1537353748191634</v>
       </c>
       <c r="D2">
-        <v>0.004012937064468591</v>
+        <v>0.003762870122382189</v>
       </c>
       <c r="E2">
-        <v>0.0651270280068843</v>
+        <v>0.02069352079028786</v>
       </c>
       <c r="F2">
-        <v>4.639663493202448</v>
+        <v>3.404131091889496</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.007647047798713</v>
+        <v>2.227327964077077</v>
       </c>
       <c r="J2">
-        <v>0.1738394188916423</v>
+        <v>0.08796544600895118</v>
       </c>
       <c r="K2">
-        <v>1.098044654369374</v>
+        <v>1.050870042555459</v>
       </c>
       <c r="L2">
-        <v>0.3540689197456715</v>
+        <v>0.1971457141807917</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.216754902808873</v>
+        <v>0.8553763172835716</v>
       </c>
       <c r="C3">
-        <v>0.06715396461659395</v>
+        <v>0.1330858542222728</v>
       </c>
       <c r="D3">
-        <v>0.004145253105162894</v>
+        <v>0.003688102491053336</v>
       </c>
       <c r="E3">
-        <v>0.06537049419045626</v>
+        <v>0.02021867641427288</v>
       </c>
       <c r="F3">
-        <v>4.599691938734992</v>
+        <v>3.223765592803858</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.983223206827091</v>
+        <v>2.124519200436211</v>
       </c>
       <c r="J3">
-        <v>0.1737394437704296</v>
+        <v>0.08623978267934262</v>
       </c>
       <c r="K3">
-        <v>1.075287720699265</v>
+        <v>0.9236010769368477</v>
       </c>
       <c r="L3">
-        <v>0.3524579666636924</v>
+        <v>0.1810451590049098</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.207252263149627</v>
+        <v>0.7878131361518683</v>
       </c>
       <c r="C4">
-        <v>0.06395599346494407</v>
+        <v>0.120617796049757</v>
       </c>
       <c r="D4">
-        <v>0.004233372198386931</v>
+        <v>0.003634856822165577</v>
       </c>
       <c r="E4">
-        <v>0.06554090196970463</v>
+        <v>0.01995015741296768</v>
       </c>
       <c r="F4">
-        <v>4.576408819635787</v>
+        <v>3.116486048899731</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.968916534873571</v>
+        <v>2.063437373349359</v>
       </c>
       <c r="J4">
-        <v>0.1737113378703015</v>
+        <v>0.08524473021558876</v>
       </c>
       <c r="K4">
-        <v>1.062085975564287</v>
+        <v>0.8469737315467967</v>
       </c>
       <c r="L4">
-        <v>0.3516446564153526</v>
+        <v>0.171446017522598</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.203592118987217</v>
+        <v>0.7606047916327441</v>
       </c>
       <c r="C5">
-        <v>0.06266391640153302</v>
+        <v>0.1155833412199456</v>
       </c>
       <c r="D5">
-        <v>0.004271017070007321</v>
+        <v>0.003611356389577214</v>
       </c>
       <c r="E5">
-        <v>0.06561561930583792</v>
+        <v>0.0198463569450178</v>
       </c>
       <c r="F5">
-        <v>4.567237214676297</v>
+        <v>3.073577100753155</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.963259630052391</v>
+        <v>2.039022871176016</v>
       </c>
       <c r="J5">
-        <v>0.1737082610830996</v>
+        <v>0.08485469956666591</v>
       </c>
       <c r="K5">
-        <v>1.056900152086683</v>
+        <v>0.8160919639310009</v>
       </c>
       <c r="L5">
-        <v>0.3513574990491435</v>
+        <v>0.1676014012312947</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.202997182580049</v>
+        <v>0.7561055701087867</v>
       </c>
       <c r="C6">
-        <v>0.06245003754631284</v>
+        <v>0.1147499900297788</v>
       </c>
       <c r="D6">
-        <v>0.004277372991440487</v>
+        <v>0.003607346554244106</v>
       </c>
       <c r="E6">
-        <v>0.06562834507846826</v>
+        <v>0.01982945585036067</v>
       </c>
       <c r="F6">
-        <v>4.565733381867048</v>
+        <v>3.066499157997796</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.962330757970761</v>
+        <v>2.034996627693872</v>
       </c>
       <c r="J6">
-        <v>0.173708256356079</v>
+        <v>0.08479084779990131</v>
       </c>
       <c r="K6">
-        <v>1.05605076984196</v>
+        <v>0.8109838497781254</v>
       </c>
       <c r="L6">
-        <v>0.3513124926116546</v>
+        <v>0.1669669200936568</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.207202041390559</v>
+        <v>0.7874449221830844</v>
       </c>
       <c r="C7">
-        <v>0.06393852312751847</v>
+        <v>0.1205497202664958</v>
       </c>
       <c r="D7">
-        <v>0.004233872854511045</v>
+        <v>0.003634547127912224</v>
       </c>
       <c r="E7">
-        <v>0.06554188825676999</v>
+        <v>0.01994873497088712</v>
       </c>
       <c r="F7">
-        <v>4.576283847233867</v>
+        <v>3.115904171270103</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.968839543011441</v>
+        <v>2.063106227181606</v>
       </c>
       <c r="J7">
-        <v>0.1737112624480943</v>
+        <v>0.08523940849264733</v>
       </c>
       <c r="K7">
-        <v>1.062015252128731</v>
+        <v>0.8465559011314951</v>
       </c>
       <c r="L7">
-        <v>0.3516406043677449</v>
+        <v>0.1713939022734507</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.227619916911777</v>
+        <v>0.9286685726848702</v>
       </c>
       <c r="C8">
-        <v>0.07060472970748322</v>
+        <v>0.1465675123223491</v>
       </c>
       <c r="D8">
-        <v>0.004057136276964801</v>
+        <v>0.003738638985284926</v>
       </c>
       <c r="E8">
-        <v>0.06520664220992423</v>
+        <v>0.02052490685805886</v>
       </c>
       <c r="F8">
-        <v>4.62561969063205</v>
+        <v>3.341182408409225</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.9990824109492</v>
+        <v>2.191432409557038</v>
       </c>
       <c r="J8">
-        <v>0.1737980450871355</v>
+        <v>0.08735657358370119</v>
       </c>
       <c r="K8">
-        <v>1.090038064358481</v>
+        <v>1.006649993322355</v>
       </c>
       <c r="L8">
-        <v>0.3534770064475481</v>
+        <v>0.1915316394718332</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.274341815827427</v>
+        <v>1.218380303118721</v>
       </c>
       <c r="C9">
-        <v>0.08403464828960239</v>
+        <v>0.1995887551269533</v>
       </c>
       <c r="D9">
-        <v>0.003764836722543574</v>
+        <v>0.003882628684513278</v>
       </c>
       <c r="E9">
-        <v>0.0647145845617132</v>
+        <v>0.02184597025542523</v>
       </c>
       <c r="F9">
-        <v>4.732381880448486</v>
+        <v>3.813547666751049</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.06387632622139</v>
+        <v>2.461102286515626</v>
       </c>
       <c r="J9">
-        <v>0.1742320158726756</v>
+        <v>0.09205748062468189</v>
       </c>
       <c r="K9">
-        <v>1.151110071799508</v>
+        <v>1.334440401639881</v>
       </c>
       <c r="L9">
-        <v>0.3584712324410049</v>
+        <v>0.2335411487836012</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.312739641244974</v>
+        <v>1.441395838034424</v>
       </c>
       <c r="C10">
-        <v>0.09412641534478894</v>
+        <v>0.2402662207641697</v>
       </c>
       <c r="D10">
-        <v>0.003582800054322988</v>
+        <v>0.003949150919765998</v>
       </c>
       <c r="E10">
-        <v>0.06445307617084417</v>
+        <v>0.02294601051089984</v>
       </c>
       <c r="F10">
-        <v>4.816965553773656</v>
+        <v>4.183971059764815</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.114854153546688</v>
+        <v>2.672976339249161</v>
       </c>
       <c r="J10">
-        <v>0.1747114558828642</v>
+        <v>0.09590279206398478</v>
       </c>
       <c r="K10">
-        <v>1.199719168271145</v>
+        <v>1.58649285642619</v>
       </c>
       <c r="L10">
-        <v>0.3629880283306619</v>
+        <v>0.2663163114442284</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.331091868551681</v>
+        <v>1.545650974974279</v>
       </c>
       <c r="C11">
-        <v>0.09876778987953116</v>
+        <v>0.2592716100279233</v>
       </c>
       <c r="D11">
-        <v>0.00350701291975497</v>
+        <v>0.003970331784670211</v>
       </c>
       <c r="E11">
-        <v>0.06435565919582764</v>
+        <v>0.02347776335893315</v>
       </c>
       <c r="F11">
-        <v>4.856788753741</v>
+        <v>4.358734276341664</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.138784384221537</v>
+        <v>2.773032733443031</v>
       </c>
       <c r="J11">
-        <v>0.1749644055659552</v>
+        <v>0.09775119651895281</v>
       </c>
       <c r="K11">
-        <v>1.222647243526296</v>
+        <v>1.704289822413472</v>
       </c>
       <c r="L11">
-        <v>0.3652265989876895</v>
+        <v>0.2817346955495026</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.338168507203818</v>
+        <v>1.585587909620045</v>
       </c>
       <c r="C12">
-        <v>0.10053273463339</v>
+        <v>0.2665522837022252</v>
       </c>
       <c r="D12">
-        <v>0.003479317905806134</v>
+        <v>0.00397700163476955</v>
       </c>
       <c r="E12">
-        <v>0.06432185417751057</v>
+        <v>0.02368392661067986</v>
       </c>
       <c r="F12">
-        <v>4.872062799142924</v>
+        <v>4.425920689368439</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.147952963583137</v>
+        <v>2.811513135190452</v>
       </c>
       <c r="J12">
-        <v>0.1750651971898947</v>
+        <v>0.09846669614106673</v>
       </c>
       <c r="K12">
-        <v>1.231446856668612</v>
+        <v>1.749412110600844</v>
       </c>
       <c r="L12">
-        <v>0.3661006867061189</v>
+        <v>0.2876550369517474</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.336638778933803</v>
+        <v>1.576965486294824</v>
       </c>
       <c r="C13">
-        <v>0.1001522936563788</v>
+        <v>0.2649803355976985</v>
       </c>
       <c r="D13">
-        <v>0.003485237964576005</v>
+        <v>0.00397562595421963</v>
       </c>
       <c r="E13">
-        <v>0.06432899771318823</v>
+        <v>0.02363930719226204</v>
       </c>
       <c r="F13">
-        <v>4.868764632249963</v>
+        <v>4.411404253831108</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.145973594973142</v>
+        <v>2.803198326220169</v>
       </c>
       <c r="J13">
-        <v>0.175043267407915</v>
+        <v>0.09831188699410376</v>
       </c>
       <c r="K13">
-        <v>1.229546488205074</v>
+        <v>1.739670214878885</v>
       </c>
       <c r="L13">
-        <v>0.3659112633562813</v>
+        <v>0.2863762043322851</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.331671522712782</v>
+        <v>1.548927103231648</v>
       </c>
       <c r="C14">
-        <v>0.09891284501978248</v>
+        <v>0.2598688454368983</v>
       </c>
       <c r="D14">
-        <v>0.003504714348553151</v>
+        <v>0.003970907846698069</v>
       </c>
       <c r="E14">
-        <v>0.0643528162914464</v>
+        <v>0.02349462654770385</v>
       </c>
       <c r="F14">
-        <v>4.858041471253927</v>
+        <v>4.364240896531186</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.139536548283857</v>
+        <v>2.776186306914155</v>
       </c>
       <c r="J14">
-        <v>0.1749725974804903</v>
+        <v>0.09780974161978406</v>
       </c>
       <c r="K14">
-        <v>1.223368843281918</v>
+        <v>1.707991345080615</v>
       </c>
       <c r="L14">
-        <v>0.3652979820988236</v>
+        <v>0.2822200752667641</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.328645474702711</v>
+        <v>1.531814116272983</v>
       </c>
       <c r="C15">
-        <v>0.09815460753557659</v>
+        <v>0.2567491853922093</v>
       </c>
       <c r="D15">
-        <v>0.003516774763804076</v>
+        <v>0.003967840618645191</v>
       </c>
       <c r="E15">
-        <v>0.06436780717881874</v>
+        <v>0.0234066397915349</v>
       </c>
       <c r="F15">
-        <v>4.851498483060141</v>
+        <v>4.335486556909842</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.13560757798362</v>
+        <v>2.759719636409997</v>
       </c>
       <c r="J15">
-        <v>0.1749299617313937</v>
+        <v>0.09750422854306251</v>
       </c>
       <c r="K15">
-        <v>1.219600125971539</v>
+        <v>1.688656224564795</v>
       </c>
       <c r="L15">
-        <v>0.3649257648967676</v>
+        <v>0.2796852398627721</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.311558068985136</v>
+        <v>1.434643481544356</v>
       </c>
       <c r="C16">
-        <v>0.09382411552010694</v>
+        <v>0.2390352270094809</v>
       </c>
       <c r="D16">
-        <v>0.003587893724356306</v>
+        <v>0.003947580104719073</v>
       </c>
       <c r="E16">
-        <v>0.06445987498163674</v>
+        <v>0.02291191425680239</v>
       </c>
       <c r="F16">
-        <v>4.814390122761097</v>
+        <v>4.172684722540055</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.113305175039059</v>
+        <v>2.666516580530327</v>
       </c>
       <c r="J16">
-        <v>0.1746956257548788</v>
+        <v>0.09578409714263003</v>
       </c>
       <c r="K16">
-        <v>1.198237173153331</v>
+        <v>1.578862994688905</v>
       </c>
       <c r="L16">
-        <v>0.3628454279467519</v>
+        <v>0.2653196347989564</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.301301993251656</v>
+        <v>1.375787729876009</v>
       </c>
       <c r="C17">
-        <v>0.09118051272585603</v>
+        <v>0.2283045417887024</v>
       </c>
       <c r="D17">
-        <v>0.003633317270850256</v>
+        <v>0.00393279289617432</v>
       </c>
       <c r="E17">
-        <v>0.06452186408599303</v>
+        <v>0.02261664258699625</v>
       </c>
       <c r="F17">
-        <v>4.791970256095965</v>
+        <v>4.074486648330719</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.09981314918393</v>
+        <v>2.610323288256666</v>
       </c>
       <c r="J17">
-        <v>0.1745607896124604</v>
+        <v>0.09475512654017137</v>
       </c>
       <c r="K17">
-        <v>1.185340554464716</v>
+        <v>1.512355362608645</v>
       </c>
       <c r="L17">
-        <v>0.3616162637167406</v>
+        <v>0.2566429431747963</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.295486268410627</v>
+        <v>1.342195825086151</v>
       </c>
       <c r="C18">
-        <v>0.08966473799705454</v>
+        <v>0.2221789211504301</v>
       </c>
       <c r="D18">
-        <v>0.003660105008436165</v>
+        <v>0.003923435658705898</v>
       </c>
       <c r="E18">
-        <v>0.06455954724294521</v>
+        <v>0.02244974068325156</v>
       </c>
       <c r="F18">
-        <v>4.779201580168092</v>
+        <v>4.01858746718554</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.092122543051616</v>
+        <v>2.578344066731816</v>
       </c>
       <c r="J18">
-        <v>0.1744865160506812</v>
+        <v>0.09417253812013016</v>
       </c>
       <c r="K18">
-        <v>1.177999525345115</v>
+        <v>1.474392994839405</v>
       </c>
       <c r="L18">
-        <v>0.3609265893473008</v>
+        <v>0.2516996678263439</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.293531476572667</v>
+        <v>1.330865330885388</v>
       </c>
       <c r="C19">
-        <v>0.08915233697518943</v>
+        <v>0.2201125217987396</v>
       </c>
       <c r="D19">
-        <v>0.003669288636345858</v>
+        <v>0.003920122509253332</v>
       </c>
       <c r="E19">
-        <v>0.06457265494759667</v>
+        <v>0.02239372541957607</v>
       </c>
       <c r="F19">
-        <v>4.774900065283759</v>
+        <v>3.999757772233806</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.089530589768003</v>
+        <v>2.56757331924949</v>
       </c>
       <c r="J19">
-        <v>0.1744619319429326</v>
+        <v>0.09397683481322616</v>
       </c>
       <c r="K19">
-        <v>1.175527164412358</v>
+        <v>1.461587736334963</v>
       </c>
       <c r="L19">
-        <v>0.3606960516987812</v>
+        <v>0.2500338413465926</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.302385150372288</v>
+        <v>1.3820257010604</v>
       </c>
       <c r="C20">
-        <v>0.09146143595616252</v>
+        <v>0.2294419600538049</v>
       </c>
       <c r="D20">
-        <v>0.003628413456924218</v>
+        <v>0.003934455530210101</v>
       </c>
       <c r="E20">
-        <v>0.06451505537860669</v>
+        <v>0.02264776942635827</v>
       </c>
       <c r="F20">
-        <v>4.79434378004288</v>
+        <v>4.084879045344906</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.101242187791541</v>
+        <v>2.616269362504269</v>
       </c>
       <c r="J20">
-        <v>0.1745748036650916</v>
+        <v>0.09486369611380496</v>
       </c>
       <c r="K20">
-        <v>1.186705476903654</v>
+        <v>1.5194046470655</v>
       </c>
       <c r="L20">
-        <v>0.3617453193554354</v>
+        <v>0.2575616342247002</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.333127079716718</v>
+        <v>1.557149768872733</v>
       </c>
       <c r="C21">
-        <v>0.09927670079161999</v>
+        <v>0.261367841521519</v>
       </c>
       <c r="D21">
-        <v>0.003498966462851971</v>
+        <v>0.003972330687586734</v>
       </c>
       <c r="E21">
-        <v>0.06434573658644105</v>
+        <v>0.02353699000308751</v>
       </c>
       <c r="F21">
-        <v>4.861185859273036</v>
+        <v>4.378065663505794</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.141424366282379</v>
+        <v>2.784103812689793</v>
       </c>
       <c r="J21">
-        <v>0.1749932191649961</v>
+        <v>0.09795680095754733</v>
       </c>
       <c r="K21">
-        <v>1.225180185421664</v>
+        <v>1.717281672243473</v>
       </c>
       <c r="L21">
-        <v>0.3654774018473432</v>
+        <v>0.2834385401572774</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.353959159478336</v>
+        <v>1.674301332958009</v>
       </c>
       <c r="C22">
-        <v>0.1044273496275139</v>
+        <v>0.2827277724979638</v>
       </c>
       <c r="D22">
-        <v>0.003420214365914109</v>
+        <v>0.0039891900357234</v>
       </c>
       <c r="E22">
-        <v>0.06425305069650022</v>
+        <v>0.02414628332122959</v>
       </c>
       <c r="F22">
-        <v>4.906001179382827</v>
+        <v>4.575610125544983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.168307924928314</v>
+        <v>2.897273403490544</v>
       </c>
       <c r="J22">
-        <v>0.1752958484027971</v>
+        <v>0.1000696511335732</v>
       </c>
       <c r="K22">
-        <v>1.251009040047506</v>
+        <v>1.849643134382916</v>
       </c>
       <c r="L22">
-        <v>0.3680703305262938</v>
+        <v>0.3008316418356998</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.342772996903363</v>
+        <v>1.61150892823207</v>
       </c>
       <c r="C23">
-        <v>0.1016743961668567</v>
+        <v>0.271278115558971</v>
       </c>
       <c r="D23">
-        <v>0.003461712573174847</v>
+        <v>0.003980928888944746</v>
       </c>
       <c r="E23">
-        <v>0.06430087869503431</v>
+        <v>0.02381841263571438</v>
       </c>
       <c r="F23">
-        <v>4.881978870139505</v>
+        <v>4.469595735734885</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.153902638996385</v>
+        <v>2.836531716807727</v>
       </c>
       <c r="J23">
-        <v>0.1751316624360655</v>
+        <v>0.09893316539407238</v>
       </c>
       <c r="K23">
-        <v>1.237161168987456</v>
+        <v>1.778698428872417</v>
       </c>
       <c r="L23">
-        <v>0.3666723790550463</v>
+        <v>0.2915015306244015</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.301895203872931</v>
+        <v>1.379204755059419</v>
       </c>
       <c r="C24">
-        <v>0.09133441790045538</v>
+        <v>0.2289275983413575</v>
       </c>
       <c r="D24">
-        <v>0.003630628374850176</v>
+        <v>0.003933706516090041</v>
       </c>
       <c r="E24">
-        <v>0.06451812722509942</v>
+        <v>0.02263368811535393</v>
       </c>
       <c r="F24">
-        <v>4.793270333592574</v>
+        <v>4.080178918228967</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.100595913434674</v>
+        <v>2.613580128324102</v>
       </c>
       <c r="J24">
-        <v>0.174568457802458</v>
+        <v>0.09481458393311826</v>
       </c>
       <c r="K24">
-        <v>1.186088166809583</v>
+        <v>1.516216817629243</v>
       </c>
       <c r="L24">
-        <v>0.3616869203811177</v>
+        <v>0.2571461542539879</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.260987195016241</v>
+        <v>1.138405970807213</v>
       </c>
       <c r="C25">
-        <v>0.08036252016991341</v>
+        <v>0.1849818989242635</v>
       </c>
       <c r="D25">
-        <v>0.003838139503869353</v>
+        <v>0.00385038300019902</v>
       </c>
       <c r="E25">
-        <v>0.06483007966767929</v>
+        <v>0.02146685812894411</v>
       </c>
       <c r="F25">
-        <v>4.702423590696071</v>
+        <v>3.682022586440354</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.045757439977621</v>
+        <v>2.385949803438123</v>
       </c>
       <c r="J25">
-        <v>0.1740863970478621</v>
+        <v>0.09072140960656228</v>
       </c>
       <c r="K25">
-        <v>1.133932460599681</v>
+        <v>1.24401029530776</v>
       </c>
       <c r="L25">
-        <v>0.3569712075158833</v>
+        <v>0.2218700964992877</v>
       </c>
       <c r="M25">
         <v>0</v>
